--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiya\SkyDrive\Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiya\Documents\GitHub\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5175" windowHeight="7050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5175" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Deshboard" sheetId="3" r:id="rId1"/>
-    <sheet name="30Dec" sheetId="7" r:id="rId2"/>
-    <sheet name="29Dec" sheetId="6" r:id="rId3"/>
-    <sheet name="26Dec" sheetId="5" r:id="rId4"/>
-    <sheet name="24Dec" sheetId="4" r:id="rId5"/>
-    <sheet name="23Dec" sheetId="2" r:id="rId6"/>
-    <sheet name="22Dec" sheetId="1" r:id="rId7"/>
+    <sheet name="31Dec" sheetId="8" r:id="rId2"/>
+    <sheet name="30Dec" sheetId="7" r:id="rId3"/>
+    <sheet name="29Dec" sheetId="6" r:id="rId4"/>
+    <sheet name="26Dec" sheetId="5" r:id="rId5"/>
+    <sheet name="24Dec" sheetId="4" r:id="rId6"/>
+    <sheet name="23Dec" sheetId="2" r:id="rId7"/>
+    <sheet name="22Dec" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
   <si>
     <t>Commission</t>
   </si>
@@ -623,7 +624,1823 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="2">
+        <f>SUM(I3:I100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41996</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F3" s="3">
+        <f>IF(D3&gt;0,(C3*D3)+H3,0)</f>
+        <v>6644.99</v>
+      </c>
+      <c r="G3" s="3">
+        <f>IF(E3&gt;0,(C3*E3)-H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I3" s="3">
+        <f>IF(E3&gt;0,G3-F3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="F4" s="3">
+        <f>IF(D4&gt;0,(C4*D4)+H4,0)</f>
+        <v>6144.99</v>
+      </c>
+      <c r="G4" s="3">
+        <f>IF(E4&gt;0,(C4*E4)-H4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I67" si="0">IF(E4&gt;0,G4-F4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="F5" s="3">
+        <f>IF(D5&gt;0,(C5*D5)+H5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f>IF(E5&gt;0,(C5*E5)-H5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="F6" s="3">
+        <f>IF(D6&gt;0,(C6*D6)+H6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f>IF(E6&gt;0,(C6*E6)-H6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F70" si="1">IF(D7&gt;0,(C7*D7)+H7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G70" si="2">IF(E7&gt;0,(C7*E7)-H7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="F53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="F54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="F55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="F56" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="F57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="F58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="F59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="F60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="F61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="F62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="F63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="F64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="F65" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" ref="I68:I100" si="3">IF(E68&gt;0,G68-F68,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <f t="shared" ref="F71:F103" si="4">IF(D71&gt;0,(C71*D71)+H71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" ref="G71:G103" si="5">IF(E71&gt;0,(C71*E71)-H71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F97" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F98" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +4272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
@@ -4289,1841 +6106,6 @@
       </c>
       <c r="I100" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="2">
-        <f>SUM(I3:I100)</f>
-        <v>35.020000000000891</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>41996</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.32</v>
-      </c>
-      <c r="F3" s="3">
-        <f>IF(D3&gt;0,(C3*D3)+H3,0)</f>
-        <v>6644.99</v>
-      </c>
-      <c r="G3" s="3">
-        <f>IF(E3&gt;0,(C3*E3)-H3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I3" s="3">
-        <f>IF(E3&gt;0,G3-F3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1400</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F67" si="0">IF(D4&gt;0,(C4*D4)+H4,0)</f>
-        <v>3616.99</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G67" si="1">IF(E4&gt;0,(C4*E4)-H4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I8" si="2">IF(E4&gt;0,G4-F4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.14</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>6144.99</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>3664.99</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>3700.0100000000007</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="2"/>
-        <v>35.020000000000891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" ref="I9:I67" si="3">IF(E9&gt;0,G9-F9,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="F38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="F39" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="F40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="F41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="F42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="F43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="F45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="F46" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="F47" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="F48" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="F49" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="F50" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="F51" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="F52" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="F53" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="F54" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="F55" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="F56" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="F57" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="F58" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="F59" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="F60" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="F61" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="F62" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="F63" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="F64" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="F65" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F66" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F68" s="3">
-        <f t="shared" ref="F68:F100" si="4">IF(D68&gt;0,(C68*D68)+H68,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" ref="G68:G100" si="5">IF(E68&gt;0,(C68*E68)-H68,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" ref="I68:I100" si="6">IF(E68&gt;0,G68-F68,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F69" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F70" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F71" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I71" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F72" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I72" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F73" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I73" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F74" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F75" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F76" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I76" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F77" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F78" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I78" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F79" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F80" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I80" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F81" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I81" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F82" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F83" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F84" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F85" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F86" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I86" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F87" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I87" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F88" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I88" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F89" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I89" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F90" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I90" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F91" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I91" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F92" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F93" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I93" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F94" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I94" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F95" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I95" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I96" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F97" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F98" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F99" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F100" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="I100" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6156,7 +6138,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="2">
         <f>SUM(I3:I100)</f>
-        <v>50.020000000000891</v>
+        <v>35.020000000000891</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6240,7 +6222,7 @@
         <v>4.99</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I67" si="2">IF(E4&gt;0,G4-F4,0)</f>
+        <f t="shared" ref="I4:I8" si="2">IF(E4&gt;0,G4-F4,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6280,25 +6262,25 @@
         <v>1500</v>
       </c>
       <c r="D6" s="2">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="E6" s="8">
-        <v>2.4500000000000002</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>3619.99</v>
+        <v>3664.99</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>3670.0100000000007</v>
+        <v>3700.0100000000007</v>
       </c>
       <c r="H6" s="3">
         <v>4.99</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>50.020000000000891</v>
+        <v>35.020000000000891</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6319,7 +6301,7 @@
         <v>4.99</v>
       </c>
       <c r="I7" s="3">
-        <f>IF(E7&gt;1,G7-F7,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6355,7 +6337,7 @@
         <v>4.99</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I9:I67" si="3">IF(E9&gt;0,G9-F9,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6373,7 +6355,7 @@
         <v>4.99</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6391,7 +6373,7 @@
         <v>4.99</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6409,7 +6391,7 @@
         <v>4.99</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6427,7 +6409,7 @@
         <v>4.99</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6445,7 +6427,7 @@
         <v>4.99</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6463,7 +6445,7 @@
         <v>4.99</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6481,7 +6463,7 @@
         <v>4.99</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6499,7 +6481,7 @@
         <v>4.99</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6517,7 +6499,7 @@
         <v>4.99</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6535,7 +6517,7 @@
         <v>4.99</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6553,7 +6535,7 @@
         <v>4.99</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6571,7 +6553,7 @@
         <v>4.99</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6589,7 +6571,7 @@
         <v>4.99</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6607,7 +6589,7 @@
         <v>4.99</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6625,7 +6607,7 @@
         <v>4.99</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6643,7 +6625,7 @@
         <v>4.99</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6661,7 +6643,7 @@
         <v>4.99</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6679,7 +6661,7 @@
         <v>4.99</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6697,7 +6679,7 @@
         <v>4.99</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6715,7 +6697,7 @@
         <v>4.99</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6733,7 +6715,7 @@
         <v>4.99</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6751,7 +6733,7 @@
         <v>4.99</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6769,7 +6751,7 @@
         <v>4.99</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6787,7 +6769,7 @@
         <v>4.99</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6805,7 +6787,7 @@
         <v>4.99</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6823,7 +6805,7 @@
         <v>4.99</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6841,7 +6823,7 @@
         <v>4.99</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6859,7 +6841,7 @@
         <v>4.99</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6877,7 +6859,7 @@
         <v>4.99</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6895,7 +6877,7 @@
         <v>4.99</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6913,7 +6895,7 @@
         <v>4.99</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6931,7 +6913,7 @@
         <v>4.99</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6949,7 +6931,7 @@
         <v>4.99</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6967,7 +6949,7 @@
         <v>4.99</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6985,7 +6967,7 @@
         <v>4.99</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7003,7 +6985,7 @@
         <v>4.99</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7021,7 +7003,7 @@
         <v>4.99</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7039,7 +7021,7 @@
         <v>4.99</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7057,7 +7039,7 @@
         <v>4.99</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7075,7 +7057,7 @@
         <v>4.99</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7093,7 +7075,7 @@
         <v>4.99</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7111,7 +7093,7 @@
         <v>4.99</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7129,7 +7111,7 @@
         <v>4.99</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7147,7 +7129,7 @@
         <v>4.99</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7165,7 +7147,7 @@
         <v>4.99</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7183,7 +7165,7 @@
         <v>4.99</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7201,7 +7183,7 @@
         <v>4.99</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7219,7 +7201,7 @@
         <v>4.99</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7237,7 +7219,7 @@
         <v>4.99</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7255,7 +7237,7 @@
         <v>4.99</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7273,7 +7255,7 @@
         <v>4.99</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7291,7 +7273,7 @@
         <v>4.99</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7309,7 +7291,7 @@
         <v>4.99</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7327,7 +7309,7 @@
         <v>4.99</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7345,7 +7327,7 @@
         <v>4.99</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7363,7 +7345,7 @@
         <v>4.99</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7380,7 +7362,7 @@
         <v>4.99</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7397,568 +7379,568 @@
         <v>4.99</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F68" s="3">
-        <f t="shared" ref="F68:F100" si="3">IF(D68&gt;0,(C68*D68)+H68,0)</f>
+        <f t="shared" ref="F68:F100" si="4">IF(D68&gt;0,(C68*D68)+H68,0)</f>
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:G100" si="4">IF(E68&gt;0,(C68*E68)-H68,0)</f>
+        <f t="shared" ref="G68:G100" si="5">IF(E68&gt;0,(C68*E68)-H68,0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="3">
         <v>4.99</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" ref="I68:I100" si="5">IF(E68&gt;0,G68-F68,0)</f>
+        <f t="shared" ref="I68:I100" si="6">IF(E68&gt;0,G68-F68,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H69" s="3">
         <v>4.99</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>4.99</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H71" s="3">
         <v>4.99</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>4.99</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H73" s="3">
         <v>4.99</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F74" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H74" s="3">
         <v>4.99</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H75" s="3">
         <v>4.99</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F76" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>4.99</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H77" s="3">
         <v>4.99</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H78" s="3">
         <v>4.99</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F79" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H79" s="3">
         <v>4.99</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F80" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H80" s="3">
         <v>4.99</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F81" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>4.99</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F82" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H82" s="3">
         <v>4.99</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>4.99</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F84" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H84" s="3">
         <v>4.99</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F85" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>4.99</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H86" s="3">
         <v>4.99</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87" s="3">
         <v>4.99</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H88" s="3">
         <v>4.99</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>4.99</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90" s="3">
         <v>4.99</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>4.99</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92" s="3">
         <v>4.99</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93" s="3">
         <v>4.99</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>4.99</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95" s="3">
         <v>4.99</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F96" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>4.99</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H97" s="3">
         <v>4.99</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H98" s="3">
         <v>4.99</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F99" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H99" s="3">
         <v>4.99</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F100" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>4.99</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7969,6 +7951,1841 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="2">
+        <f>SUM(I3:I100)</f>
+        <v>50.020000000000891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41996</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F3" s="3">
+        <f>IF(D3&gt;0,(C3*D3)+H3,0)</f>
+        <v>6644.99</v>
+      </c>
+      <c r="G3" s="3">
+        <f>IF(E3&gt;0,(C3*E3)-H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I3" s="3">
+        <f>IF(E3&gt;0,G3-F3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1400</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F67" si="0">IF(D4&gt;0,(C4*D4)+H4,0)</f>
+        <v>3616.99</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G67" si="1">IF(E4&gt;0,(C4*E4)-H4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I67" si="2">IF(E4&gt;0,G4-F4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>6144.99</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>3619.99</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>3670.0100000000007</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>50.020000000000891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I7" s="3">
+        <f>IF(E7&gt;1,G7-F7,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <f t="shared" ref="F68:F100" si="3">IF(D68&gt;0,(C68*D68)+H68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" ref="G68:G100" si="4">IF(E68&gt;0,(C68*E68)-H68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" ref="I68:I100" si="5">IF(E68&gt;0,G68-F68,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F91" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F97" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F98" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
@@ -9841,7 +11658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
